--- a/Assets/02Script/Manager/DialogueManager/DialogueSheet.xlsx
+++ b/Assets/02Script/Manager/DialogueManager/DialogueSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JSK\Desktop\UnityGames\RPGGame\Assets\02Script\Manager\DialogueManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BD98B6-A9F6-4C04-B02C-08EA5E4F6CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DC5BF3-AA31-458E-BC5A-E2F270A4283D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CAD4DF56-E29E-41CF-98A8-9E3149639929}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{CAD4DF56-E29E-41CF-98A8-9E3149639929}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,10 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>난 여기서 기다리고 있을테니까.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>걱정마. 보상은 확실히 해줄테니까.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,6 +211,10 @@
   </si>
   <si>
     <t>ComfirmBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 여기서 기다리고 있을게.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54781867-1FA7-4C5B-AC3C-22B0018CE468}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D16">
         <v>16</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -888,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18">
         <v>10</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19">
         <v>20</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -939,13 +939,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D21">
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -956,13 +956,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -973,13 +973,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -990,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1007,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1024,13 +1024,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1058,13 +1058,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1075,13 +1075,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1092,13 +1092,13 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1146,37 +1146,37 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
